--- a/excel data.xlsx
+++ b/excel data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fuzzymam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F6021-FC5B-4F67-BF6D-5283FDF1E66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214BD7CC-F744-47B6-BBD9-2389F4F3D852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="690" windowWidth="8880" windowHeight="10410" firstSheet="4" activeTab="4" xr2:uid="{4BDC0DE3-69BE-4411-9338-BFAA585693F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{4BDC0DE3-69BE-4411-9338-BFAA585693F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Banjir" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="52">
   <si>
     <t>Balowerti</t>
   </si>
@@ -183,16 +183,16 @@
     <t>Kelurahan</t>
   </si>
   <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>Jumlah penduduk terdampak (PD)</t>
+  </si>
+  <si>
+    <t>Jumlah Bangunan terdampak (NB)</t>
+  </si>
+  <si>
+    <t>Jumlah Fasilitas Kesehatan (HF)</t>
+  </si>
+  <si>
+    <t>Jumlah Bencana ( D )</t>
   </si>
 </sst>
 </file>
@@ -230,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -238,17 +238,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,412 +588,594 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1076DF-B35A-4E80-A3AB-72CEEF063FCE}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -981,48 +1185,2392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06E8DF3-7120-4C48-AE1B-4AA51F1E2E89}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D8C7B0-1AEA-4C93-8233-485D89858AB1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C94A36-2C5D-4DB2-A930-8A8EA84B5C48}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B4E923-2F00-41C8-8AD5-A5DC638B019A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>